--- a/Scripts/CadwNPCs.xlsx
+++ b/Scripts/CadwNPCs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Documents/GitHub/Cadw-new/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284DC8E-00F3-6144-9846-A6B2D2CF86BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5E3C0-B8EF-5444-AA02-CC530022A99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="900" windowWidth="34300" windowHeight="19680" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Welcome, curious explorer, to your virtual tour of Conwy Castle! Come embark on an adventure filled with wonders and excitement. So, pack your imagination, and let's go on an unforgettable journey! Walk past the Outer Gate and up the ramp or click the ‘Portcullis’ Button below to be teleported there.</t>
   </si>
   <si>
-    <t>Outer Gate</t>
-  </si>
-  <si>
     <t>Galleri</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>Visit the Galler</t>
+  </si>
+  <si>
+    <t>Portcullis</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,11 +737,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,7 +1076,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1154,7 @@
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1177,61 +1174,53 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>143</v>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1247,647 +1236,647 @@
         <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="K29" t="s">
         <v>141</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>142</v>
-      </c>
-      <c r="M29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" t="s">
         <v>156</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>157</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>158</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>159</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" t="s">
         <v>166</v>
-      </c>
-      <c r="K33" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" t="s">
         <v>184</v>
-      </c>
-      <c r="K36" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
